--- a/classes.xlsx
+++ b/classes.xlsx
@@ -14,28 +14,12 @@
     <sheet name="11b" r:id="rId8" sheetId="6"/>
     <sheet name="12a" r:id="rId9" sheetId="7"/>
     <sheet name="12b" r:id="rId10" sheetId="8"/>
-    <sheet name="9a_lányok" r:id="rId11" sheetId="9"/>
-    <sheet name="9a_fiuk" r:id="rId12" sheetId="10"/>
-    <sheet name="9b_lányok" r:id="rId13" sheetId="11"/>
-    <sheet name="9b_fiuk" r:id="rId14" sheetId="12"/>
-    <sheet name="10a_lányok" r:id="rId15" sheetId="13"/>
-    <sheet name="10a_fiuk" r:id="rId16" sheetId="14"/>
-    <sheet name="10b_lányok" r:id="rId17" sheetId="15"/>
-    <sheet name="10b_fiuk" r:id="rId18" sheetId="16"/>
-    <sheet name="11a_lányok" r:id="rId19" sheetId="17"/>
-    <sheet name="11a_fiuk" r:id="rId20" sheetId="18"/>
-    <sheet name="11b_lányok" r:id="rId21" sheetId="19"/>
-    <sheet name="11b_fiuk" r:id="rId22" sheetId="20"/>
-    <sheet name="12a_lányok" r:id="rId23" sheetId="21"/>
-    <sheet name="12a_fiuk" r:id="rId24" sheetId="22"/>
-    <sheet name="12b_lányok" r:id="rId25" sheetId="23"/>
-    <sheet name="12b_fiuk" r:id="rId26" sheetId="24"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="126">
   <si>
     <t>Group</t>
   </si>
@@ -55,292 +39,364 @@
     <t>9a</t>
   </si>
   <si>
+    <t>Angol nyelv</t>
+  </si>
+  <si>
+    <t>Kovács Bence</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Mon 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Ének-zene</t>
+  </si>
+  <si>
+    <t>Horváth Edit</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Mon 9:00 - 9:45</t>
+  </si>
+  <si>
     <t>Matematika</t>
   </si>
   <si>
     <t>Nagy Katalin</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Mon 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Varga Csilla</t>
+  </si>
+  <si>
+    <t>Informatika terem1</t>
+  </si>
+  <si>
+    <t>Mon 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Mon 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Magyar nyelv és irodalom</t>
+  </si>
+  <si>
+    <t>Kiss Jenő</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Mon 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Mon 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Kémia</t>
+  </si>
+  <si>
+    <t>Szabó János</t>
+  </si>
+  <si>
+    <t>Kémialabor</t>
+  </si>
+  <si>
+    <t>Tue 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Osztályfőnöki</t>
+  </si>
+  <si>
+    <t>Tue 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Földrajz</t>
+  </si>
+  <si>
+    <t>Tóth Anita</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Tue 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Testnevelés és sport</t>
+  </si>
+  <si>
+    <t>Molnár Bernadett</t>
+  </si>
+  <si>
+    <t>Nagyterem</t>
+  </si>
+  <si>
+    <t>Tue 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>II. idegen nyelv</t>
+  </si>
+  <si>
+    <t>Németh Emília</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Tue 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Tue 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Focipálya</t>
+  </si>
+  <si>
+    <t>Tue 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Fizikalabor</t>
+  </si>
+  <si>
+    <t>Wed 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Wed 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>Wed 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Wed 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Vizuális kultúra</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Wed 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Kondi</t>
+  </si>
+  <si>
+    <t>Wed 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Történelem</t>
+  </si>
+  <si>
+    <t>Thu 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Thu 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Thu 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Thu 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Thu 13:10 - 13:55</t>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
-    <t>Mon 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Testnevelés és sport</t>
-  </si>
-  <si>
-    <t>Molnár Bernadett</t>
-  </si>
-  <si>
-    <t>Kondi</t>
-  </si>
-  <si>
-    <t>Történelem</t>
-  </si>
-  <si>
-    <t>Tóth Anita</t>
+    <t>Thu 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Tánc és Dráma</t>
+  </si>
+  <si>
+    <t>Thu 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Fri 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Fri 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Fri 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Fri 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Fri 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Fri 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Fri 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Nagy Klára</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Kovács Bálint</t>
+  </si>
+  <si>
+    <t>Mon 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Németh Enikő</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Szabó Jakab</t>
+  </si>
+  <si>
+    <t>Kiss János</t>
+  </si>
+  <si>
+    <t>Horváth Edina</t>
+  </si>
+  <si>
+    <t>Tue 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Tóth Anna</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Wed 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Wed 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Thu 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Tóth Anikó</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Farkas Rozália</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Molnár Ferenc</t>
+  </si>
+  <si>
+    <t>Kiss József</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Biológia</t>
+  </si>
+  <si>
+    <t>Bioszlabor</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>Kiss Jónás</t>
+  </si>
+  <si>
+    <t>305</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>Mon 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Fizika</t>
-  </si>
-  <si>
-    <t>Szabó János</t>
-  </si>
-  <si>
-    <t>Fizikalabor</t>
-  </si>
-  <si>
-    <t>Ének-zene</t>
-  </si>
-  <si>
-    <t>Horváth Edit</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Mon 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Kémia</t>
-  </si>
-  <si>
-    <t>Kémialabor</t>
-  </si>
-  <si>
-    <t>Tue 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Varga Csilla</t>
-  </si>
-  <si>
-    <t>Informatika terem</t>
-  </si>
-  <si>
-    <t>Tue 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Tue 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Angol nyelv</t>
-  </si>
-  <si>
-    <t>Kovács Bence</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Tánc és Dráma</t>
-  </si>
-  <si>
-    <t>Kiss Jenő</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>II. idegen nyelv</t>
-  </si>
-  <si>
-    <t>Németh Emília</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Tue 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Földrajz</t>
-  </si>
-  <si>
-    <t>Tue 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Nagyterem</t>
-  </si>
-  <si>
-    <t>Wed 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Wed 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Magyar nyelv és irodalom</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Wed 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Osztályfőnöki</t>
-  </si>
-  <si>
-    <t>Wed 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Wed 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Wed 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Vizuális kultúra</t>
-  </si>
-  <si>
     <t>104</t>
   </si>
   <si>
-    <t>Thu 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Focipálya</t>
-  </si>
-  <si>
-    <t>Thu 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Thu 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Thu 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Thu 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Thu 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Fri 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Fri 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Fri 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Fri 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Fri 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>Mon 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Mon 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Molnár Ferenc</t>
-  </si>
-  <si>
-    <t>Mon 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Mon 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Wed 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Farkas Rozália</t>
-  </si>
-  <si>
-    <t>Thu 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Biológia</t>
-  </si>
-  <si>
-    <t>Bioszlabor</t>
-  </si>
-  <si>
-    <t>Thu 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Fri 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Fri 13:10 - 13:55</t>
-  </si>
-  <si>
     <t>11a</t>
   </si>
   <si>
     <t>Németh Emilia</t>
   </si>
   <si>
-    <t>Mon 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Tue 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Tue 13:10 - 13:55</t>
+    <t>Művészetek</t>
   </si>
   <si>
     <t>Etika</t>
   </si>
   <si>
-    <t>Wed 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Művészetek</t>
-  </si>
-  <si>
-    <t>107</t>
+    <t>11b</t>
   </si>
   <si>
     <t>12a</t>
   </si>
   <si>
-    <t>Tue 14:05- 14:50</t>
-  </si>
-  <si>
     <t>Életvitel és gyakorlat</t>
+  </si>
+  <si>
+    <t>12b</t>
   </si>
 </sst>
 </file>
@@ -348,109 +404,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -521,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -531,22 +491,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -562,7 +506,7 @@
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -614,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -622,16 +566,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -639,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -656,10 +600,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -676,13 +620,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -690,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -707,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -724,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -750,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -758,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -775,16 +719,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -792,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -809,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -826,16 +770,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -843,16 +787,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -860,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -877,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -894,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -911,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -928,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -945,16 +889,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -962,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -979,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -996,16 +940,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -1013,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1030,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -1047,16 +991,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1064,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1081,16 +1025,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -1098,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -1115,16 +1059,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -1132,16 +1076,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -1149,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -1166,386 +1110,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="10">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="11">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="11">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="12">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="12">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="12">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="12">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="12">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="13">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="13">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="13">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="13">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="14">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="14">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="14">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="14">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="14">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="15">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="15">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="15">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="15">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="15">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="16">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="16">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="16">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="16">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="17">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="17">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="17">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="18">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="18">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="18">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="18">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="19">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="19">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="19">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1555,17 +1129,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1585,189 +1159,599 @@
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="20">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="20">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="20">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="20">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="20">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="21">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="21">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="21">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="21">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="21">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="22">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="22">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="22">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="22">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="22">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="23">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="23">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="23">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="23">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="23">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="24">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="24">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="24">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="24">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="24">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1770,7 @@
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1809,424 +1793,424 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>64</v>
@@ -2234,189 +2218,189 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2426,17 +2410,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2454,6 +2438,618 @@
       </c>
       <c r="E1" t="s" s="4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2495,16 +3091,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2512,648 +3108,648 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3163,17 +3759,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3191,6 +3787,669 @@
       </c>
       <c r="E1" t="s" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3232,16 +4491,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3249,339 +4508,339 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
@@ -3589,240 +4848,240 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3832,17 +5091,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3862,41 +5121,599 @@
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.27734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="9">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="9">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -39,340 +39,340 @@
     <t>9a</t>
   </si>
   <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Nagy Katalin</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Mon 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Magyar nyelv és irodalom</t>
+  </si>
+  <si>
+    <t>Kiss Jenő</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Mon 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Testnevelés és sport</t>
+  </si>
+  <si>
+    <t>Molnár Bernadett</t>
+  </si>
+  <si>
+    <t>Focipálya</t>
+  </si>
+  <si>
+    <t>Mon 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Történelem</t>
+  </si>
+  <si>
+    <t>Tóth Anita</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Mon 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Földrajz</t>
+  </si>
+  <si>
+    <t>Mon 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Szabó János</t>
+  </si>
+  <si>
+    <t>Fizikalabor</t>
+  </si>
+  <si>
+    <t>Mon 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Ének-zene</t>
+  </si>
+  <si>
+    <t>Horváth Edit</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Tue 8:00 - 8:45</t>
+  </si>
+  <si>
     <t>Angol nyelv</t>
   </si>
   <si>
     <t>Kovács Bence</t>
   </si>
   <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Tue 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Kondi</t>
+  </si>
+  <si>
+    <t>Tue 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Osztályfőnöki</t>
+  </si>
+  <si>
+    <t>Tue 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Tue 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Tue 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Tue 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>II. idegen nyelv</t>
+  </si>
+  <si>
+    <t>Németh Emília</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Tue 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Wed 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Nagyterem</t>
+  </si>
+  <si>
+    <t>Wed 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Wed 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Wed 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Kémia</t>
+  </si>
+  <si>
+    <t>Kémialabor</t>
+  </si>
+  <si>
+    <t>Wed 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Wed 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Wed 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Tánc és Dráma</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Thu 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Thu 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Thu 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Thu 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Thu 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Varga Csilla</t>
+  </si>
+  <si>
+    <t>Informatika terem1</t>
+  </si>
+  <si>
+    <t>Thu 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Thu 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Thu 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Fri 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Fri 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>Fri 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Fri 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Fri 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Vizuális kultúra</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Fri 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Kovács Bálint</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Szabó Jakab</t>
+  </si>
+  <si>
+    <t>Nagy Klára</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Németh Enikő</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Mon 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Mon 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Tóth Anikó</t>
+  </si>
+  <si>
+    <t>Kiss János</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Wed 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Horváth Edina</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Tóth Anna</t>
+  </si>
+  <si>
+    <t>Fri 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Molnár Ferenc</t>
+  </si>
+  <si>
+    <t>Kiss József</t>
+  </si>
+  <si>
+    <t>Farkas Rozália</t>
+  </si>
+  <si>
+    <t>Biológia</t>
+  </si>
+  <si>
+    <t>Bioszlabor</t>
+  </si>
+  <si>
     <t>206</t>
   </si>
   <si>
-    <t>Mon 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Ének-zene</t>
-  </si>
-  <si>
-    <t>Horváth Edit</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Mon 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Nagy Katalin</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Mon 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Varga Csilla</t>
-  </si>
-  <si>
-    <t>Informatika terem1</t>
-  </si>
-  <si>
-    <t>Mon 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>Mon 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Magyar nyelv és irodalom</t>
-  </si>
-  <si>
-    <t>Kiss Jenő</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Mon 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>Mon 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Kémia</t>
-  </si>
-  <si>
-    <t>Szabó János</t>
-  </si>
-  <si>
-    <t>Kémialabor</t>
-  </si>
-  <si>
-    <t>Tue 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Osztályfőnöki</t>
-  </si>
-  <si>
-    <t>Tue 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Földrajz</t>
-  </si>
-  <si>
-    <t>Tóth Anita</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Tue 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Testnevelés és sport</t>
-  </si>
-  <si>
-    <t>Molnár Bernadett</t>
-  </si>
-  <si>
-    <t>Nagyterem</t>
-  </si>
-  <si>
-    <t>Tue 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>II. idegen nyelv</t>
-  </si>
-  <si>
-    <t>Németh Emília</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Tue 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Tue 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Focipálya</t>
-  </si>
-  <si>
-    <t>Tue 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Fizika</t>
-  </si>
-  <si>
-    <t>Fizikalabor</t>
-  </si>
-  <si>
-    <t>Wed 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Wed 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>Wed 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Wed 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Vizuális kultúra</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Wed 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Kondi</t>
-  </si>
-  <si>
-    <t>Wed 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Történelem</t>
-  </si>
-  <si>
-    <t>Thu 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Thu 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Thu 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Thu 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Thu 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Thu 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Tánc és Dráma</t>
-  </si>
-  <si>
-    <t>Thu 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Fri 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Fri 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Fri 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>Fri 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Fri 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Fri 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Fri 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>Nagy Klára</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Angol</t>
-  </si>
-  <si>
-    <t>Kovács Bálint</t>
-  </si>
-  <si>
-    <t>Mon 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Németh Enikő</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>Szabó Jakab</t>
-  </si>
-  <si>
-    <t>Kiss János</t>
-  </si>
-  <si>
-    <t>Horváth Edina</t>
-  </si>
-  <si>
-    <t>Tue 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Tóth Anna</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Wed 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Wed 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Thu 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Tóth Anikó</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>Farkas Rozália</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Molnár Ferenc</t>
-  </si>
-  <si>
-    <t>Kiss József</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Biológia</t>
-  </si>
-  <si>
-    <t>Bioszlabor</t>
+    <t>305</t>
   </si>
   <si>
     <t>10b</t>
   </si>
   <si>
     <t>Kiss Jónás</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>104</t>
   </si>
   <si>
     <t>11a</t>
@@ -600,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -634,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -651,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -668,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -685,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -702,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -719,16 +719,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -736,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -753,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -770,16 +770,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -787,16 +787,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -804,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -821,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -838,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -889,16 +889,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -906,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -940,16 +940,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -957,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -974,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -991,16 +991,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -1031,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -1042,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -1065,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -1076,16 +1076,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -1093,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -1110,13 +1110,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
@@ -1164,13 +1164,13 @@
         <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1181,16 +1181,16 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1198,16 +1198,16 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1218,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -1232,13 +1232,13 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1249,13 +1249,13 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1266,16 +1266,16 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1283,16 +1283,16 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1300,16 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1317,13 +1317,13 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1334,16 +1334,16 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -1354,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -1368,16 +1368,16 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1385,16 +1385,16 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -1402,16 +1402,16 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1419,16 +1419,16 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -1436,16 +1436,16 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -1453,16 +1453,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -1470,16 +1470,16 @@
         <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1487,16 +1487,16 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1504,16 +1504,16 @@
         <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -1521,16 +1521,16 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -1538,13 +1538,13 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -1555,13 +1555,13 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -1572,16 +1572,16 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1592,13 +1592,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1606,16 +1606,16 @@
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1623,16 +1623,16 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -1640,16 +1640,16 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -1657,16 +1657,16 @@
         <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1674,16 +1674,16 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -1691,16 +1691,16 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -1711,13 +1711,13 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -1725,16 +1725,16 @@
         <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -1742,13 +1742,13 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1810,16 +1810,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1827,50 +1827,50 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1878,16 +1878,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1895,67 +1895,67 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1963,305 +1963,305 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
@@ -2269,138 +2269,138 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2476,67 +2476,67 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -2544,67 +2544,67 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -2612,444 +2612,444 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3094,13 +3094,13 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3111,13 +3111,13 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3128,16 +3128,16 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -3151,10 +3151,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -3162,16 +3162,16 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -3179,16 +3179,16 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -3196,16 +3196,16 @@
         <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -3213,13 +3213,13 @@
         <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -3230,16 +3230,16 @@
         <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -3247,16 +3247,16 @@
         <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -3264,16 +3264,16 @@
         <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -3281,16 +3281,16 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -3298,16 +3298,16 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -3315,16 +3315,16 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -3332,16 +3332,16 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -3349,16 +3349,16 @@
         <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -3366,16 +3366,16 @@
         <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3383,16 +3383,16 @@
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3400,16 +3400,16 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -3417,16 +3417,16 @@
         <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -3434,16 +3434,16 @@
         <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -3451,16 +3451,16 @@
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -3468,16 +3468,16 @@
         <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -3485,16 +3485,16 @@
         <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3502,16 +3502,16 @@
         <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -3519,16 +3519,16 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -3536,16 +3536,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -3553,16 +3553,16 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -3570,16 +3570,16 @@
         <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -3587,16 +3587,16 @@
         <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -3604,13 +3604,13 @@
         <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -3621,13 +3621,13 @@
         <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>75</v>
@@ -3638,16 +3638,16 @@
         <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -3655,16 +3655,16 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -3672,16 +3672,16 @@
         <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -3689,16 +3689,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -3706,16 +3706,16 @@
         <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -3726,13 +3726,13 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -3740,16 +3740,16 @@
         <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3794,13 +3794,13 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3811,13 +3811,13 @@
         <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3828,16 +3828,16 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -3848,13 +3848,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -3862,13 +3862,13 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -3879,13 +3879,13 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -3896,16 +3896,16 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -3913,16 +3913,16 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -3930,16 +3930,16 @@
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -3947,16 +3947,16 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -3964,16 +3964,16 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -3981,16 +3981,16 @@
         <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -3998,16 +3998,16 @@
         <v>122</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -4015,16 +4015,16 @@
         <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -4032,16 +4032,16 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -4049,16 +4049,16 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -4066,16 +4066,16 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -4083,16 +4083,16 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -4100,16 +4100,16 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -4117,16 +4117,16 @@
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -4137,13 +4137,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -4151,16 +4151,16 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -4168,16 +4168,16 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -4185,16 +4185,16 @@
         <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -4202,16 +4202,16 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -4219,16 +4219,16 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -4236,16 +4236,16 @@
         <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -4253,16 +4253,16 @@
         <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -4273,13 +4273,13 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -4287,16 +4287,16 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -4304,16 +4304,16 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -4321,16 +4321,16 @@
         <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4338,16 +4338,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -4355,16 +4355,16 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -4372,16 +4372,16 @@
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -4389,16 +4389,16 @@
         <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -4406,16 +4406,16 @@
         <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -4423,16 +4423,16 @@
         <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -4440,13 +4440,13 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
         <v>86</v>
@@ -4468,7 +4468,7 @@
     <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.3125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4494,13 +4494,13 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4511,13 +4511,13 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4528,16 +4528,16 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -4562,13 +4562,13 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -4579,16 +4579,16 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -4936,13 +4936,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>73</v>
@@ -4953,13 +4953,13 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -4970,16 +4970,16 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5021,16 +5021,16 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -5038,13 +5038,13 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>81</v>
@@ -5055,16 +5055,16 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -5072,13 +5072,13 @@
         <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
@@ -5126,13 +5126,13 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -5143,16 +5143,16 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -5160,16 +5160,16 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -5177,16 +5177,16 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -5194,16 +5194,16 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -5211,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -5228,16 +5228,16 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -5245,16 +5245,16 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -5262,16 +5262,16 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -5279,16 +5279,16 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -5296,16 +5296,16 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -5313,16 +5313,16 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -5333,13 +5333,13 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -5347,16 +5347,16 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -5364,16 +5364,16 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -5381,16 +5381,16 @@
         <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -5398,13 +5398,13 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -5415,16 +5415,16 @@
         <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -5432,16 +5432,16 @@
         <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -5449,16 +5449,16 @@
         <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -5466,16 +5466,16 @@
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -5483,16 +5483,16 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -5500,16 +5500,16 @@
         <v>125</v>
       </c>
       <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -5517,16 +5517,16 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -5534,16 +5534,16 @@
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -5551,16 +5551,16 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -5568,16 +5568,16 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -5585,16 +5585,16 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -5602,16 +5602,16 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -5619,16 +5619,16 @@
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -5636,16 +5636,16 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5653,16 +5653,16 @@
         <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -5670,16 +5670,16 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -5690,13 +5690,13 @@
         <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -5704,13 +5704,13 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -39,6 +39,165 @@
     <t>9a</t>
   </si>
   <si>
+    <t>Magyar nyelv és irodalom</t>
+  </si>
+  <si>
+    <t>Kiss Jenő</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Mon 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>II. idegen nyelv</t>
+  </si>
+  <si>
+    <t>Németh Emília</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Mon 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Angol nyelv</t>
+  </si>
+  <si>
+    <t>Kovács Bence</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Mon 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Varga Csilla</t>
+  </si>
+  <si>
+    <t>Informatika terem1</t>
+  </si>
+  <si>
+    <t>Mon 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Szabó János</t>
+  </si>
+  <si>
+    <t>Fizikalabor</t>
+  </si>
+  <si>
+    <t>Mon 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Történelem</t>
+  </si>
+  <si>
+    <t>Tóth Anita</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Tue 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Tue 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Tue 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Kémia</t>
+  </si>
+  <si>
+    <t>Kémialabor</t>
+  </si>
+  <si>
+    <t>Tue 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Vizuális kultúra</t>
+  </si>
+  <si>
+    <t>Horváth Edit</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Tue 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Testnevelés és sport</t>
+  </si>
+  <si>
+    <t>Molnár Bernadett</t>
+  </si>
+  <si>
+    <t>Kondi</t>
+  </si>
+  <si>
+    <t>Tue 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Tánc és Dráma</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Tue 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Wed 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Osztályfőnöki</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Wed 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Wed 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Wed 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Földrajz</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Wed 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Nagyterem</t>
+  </si>
+  <si>
+    <t>Wed 13:10 - 13:55</t>
+  </si>
+  <si>
     <t>Matematika</t>
   </si>
   <si>
@@ -48,343 +207,184 @@
     <t>201</t>
   </si>
   <si>
-    <t>Mon 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Magyar nyelv és irodalom</t>
-  </si>
-  <si>
-    <t>Kiss Jenő</t>
-  </si>
-  <si>
-    <t>204</t>
+    <t>Wed 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Wed 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Thu 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Thu 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Thu 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Thu 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Thu 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Thu 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Thu 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Ének-zene</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Thu 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Fri 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Fri 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Fri 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Fri 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Fri 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Fri 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Fri 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Nagy Klára</t>
   </si>
   <si>
     <t>Mon 9:00 - 9:45</t>
   </si>
   <si>
-    <t>Testnevelés és sport</t>
-  </si>
-  <si>
-    <t>Molnár Bernadett</t>
+    <t>Tóth Anna</t>
+  </si>
+  <si>
+    <t>Mon 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Horváth Edina</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>Németh Enikő</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Mon 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Kovács Bálint</t>
+  </si>
+  <si>
+    <t>Szabó Jakab</t>
+  </si>
+  <si>
+    <t>Tóth Anikó</t>
+  </si>
+  <si>
+    <t>Tue 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Kiss János</t>
   </si>
   <si>
     <t>Focipálya</t>
   </si>
   <si>
-    <t>Mon 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Történelem</t>
-  </si>
-  <si>
-    <t>Tóth Anita</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Mon 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Földrajz</t>
-  </si>
-  <si>
-    <t>Mon 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Fizika</t>
-  </si>
-  <si>
-    <t>Szabó János</t>
-  </si>
-  <si>
-    <t>Fizikalabor</t>
-  </si>
-  <si>
-    <t>Mon 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Ének-zene</t>
-  </si>
-  <si>
-    <t>Horváth Edit</t>
+    <t>305</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>Tue 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Angol nyelv</t>
-  </si>
-  <si>
-    <t>Kovács Bence</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Farkas Rozália</t>
+  </si>
+  <si>
+    <t>Kiss József</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Molnár Ferenc</t>
+  </si>
+  <si>
+    <t>Biológia</t>
+  </si>
+  <si>
+    <t>Bioszlabor</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>Kiss Jónás</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>Németh Emilia</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>Tue 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Kondi</t>
-  </si>
-  <si>
-    <t>Tue 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Osztályfőnöki</t>
-  </si>
-  <si>
-    <t>Tue 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Tue 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Tue 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Tue 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>II. idegen nyelv</t>
-  </si>
-  <si>
-    <t>Németh Emília</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Tue 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Wed 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Nagyterem</t>
-  </si>
-  <si>
-    <t>Wed 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Wed 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Wed 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Kémia</t>
-  </si>
-  <si>
-    <t>Kémialabor</t>
-  </si>
-  <si>
-    <t>Wed 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Wed 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Wed 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Tánc és Dráma</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Thu 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Thu 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Thu 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Thu 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Thu 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Varga Csilla</t>
-  </si>
-  <si>
-    <t>Informatika terem1</t>
-  </si>
-  <si>
-    <t>Thu 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Thu 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>Thu 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Fri 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>Fri 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>Fri 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Fri 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Fri 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Vizuális kultúra</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Fri 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>Angol</t>
-  </si>
-  <si>
-    <t>Kovács Bálint</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Szabó Jakab</t>
-  </si>
-  <si>
-    <t>Nagy Klára</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Németh Enikő</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>Mon 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Mon 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Tóth Anikó</t>
-  </si>
-  <si>
-    <t>Kiss János</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>203</t>
+    <t>Etika</t>
   </si>
   <si>
     <t>306</t>
   </si>
   <si>
-    <t>Wed 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Horváth Edina</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Tóth Anna</t>
-  </si>
-  <si>
-    <t>Fri 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>Molnár Ferenc</t>
-  </si>
-  <si>
-    <t>Kiss József</t>
-  </si>
-  <si>
-    <t>Farkas Rozália</t>
-  </si>
-  <si>
-    <t>Biológia</t>
-  </si>
-  <si>
-    <t>Bioszlabor</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>Kiss Jónás</t>
-  </si>
-  <si>
-    <t>11a</t>
-  </si>
-  <si>
-    <t>Németh Emilia</t>
-  </si>
-  <si>
     <t>Művészetek</t>
-  </si>
-  <si>
-    <t>Etika</t>
   </si>
   <si>
     <t>11b</t>
@@ -503,11 +503,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,13 +603,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -617,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -634,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -651,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -668,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -685,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -702,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -719,16 +719,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -736,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -753,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -770,16 +770,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -787,16 +787,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -804,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -821,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -838,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -878,10 +878,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -889,16 +889,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -906,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -940,16 +940,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -957,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -974,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
         <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -991,13 +991,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>73</v>
@@ -1008,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
@@ -1025,13 +1025,13 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
       </c>
       <c r="E31" t="s">
         <v>76</v>
@@ -1042,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -1065,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
         <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -1076,16 +1076,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -1093,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -1110,16 +1110,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1135,11 +1135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1161,16 +1161,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1178,67 +1178,67 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1246,288 +1246,288 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -1552,33 +1552,33 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>68</v>
@@ -1603,155 +1603,155 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1767,11 +1767,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.1953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1793,16 +1793,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1810,271 +1810,271 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -2099,118 +2099,118 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -2218,16 +2218,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
@@ -2235,16 +2235,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>68</v>
@@ -2252,67 +2252,67 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -2320,50 +2320,50 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
         <v>80</v>
@@ -2371,33 +2371,33 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -2416,11 +2416,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2442,16 +2442,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2459,271 +2459,271 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -2731,16 +2731,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -2748,118 +2748,118 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>66</v>
@@ -2867,67 +2867,67 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
@@ -2935,16 +2935,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>75</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -2969,50 +2969,50 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
         <v>80</v>
@@ -3020,33 +3020,33 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -3065,11 +3065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.08984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3091,16 +3091,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3108,237 +3108,237 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -3346,50 +3346,50 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>50</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -3414,135 +3414,135 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -3550,16 +3550,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
@@ -3567,16 +3567,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>
@@ -3584,101 +3584,101 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>78</v>
@@ -3686,70 +3686,70 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3765,11 +3765,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.08984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3794,13 +3794,13 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3811,16 +3811,16 @@
         <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -3828,16 +3828,16 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -3845,16 +3845,16 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -3862,16 +3862,16 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -3879,16 +3879,16 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -3896,16 +3896,16 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -3913,16 +3913,16 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -3930,16 +3930,16 @@
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -3950,13 +3950,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -3964,16 +3964,16 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -3981,16 +3981,16 @@
         <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -3998,16 +3998,16 @@
         <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -4015,16 +4015,16 @@
         <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -4032,13 +4032,13 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -4049,16 +4049,16 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -4066,16 +4066,16 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -4083,13 +4083,13 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
         <v>50</v>
@@ -4100,13 +4100,13 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -4117,16 +4117,16 @@
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -4134,16 +4134,16 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -4151,16 +4151,16 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -4168,16 +4168,16 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -4185,16 +4185,16 @@
         <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -4202,16 +4202,16 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -4219,16 +4219,16 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4236,13 +4236,13 @@
         <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -4253,13 +4253,13 @@
         <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
@@ -4270,13 +4270,13 @@
         <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>
@@ -4287,16 +4287,16 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -4304,16 +4304,16 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4321,16 +4321,16 @@
         <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -4338,16 +4338,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -4355,16 +4355,16 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -4372,13 +4372,13 @@
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>78</v>
@@ -4389,16 +4389,16 @@
         <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -4406,16 +4406,16 @@
         <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -4423,16 +4423,16 @@
         <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -4440,16 +4440,16 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4465,11 +4465,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.3125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.1953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.26953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4494,16 +4494,16 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -4511,13 +4511,13 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4528,13 +4528,13 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -4545,16 +4545,16 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -4562,13 +4562,13 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -4579,16 +4579,16 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -4616,13 +4616,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -4698,13 +4698,13 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -4715,16 +4715,16 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -4749,16 +4749,16 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -4766,16 +4766,16 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -4803,13 +4803,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -4834,16 +4834,16 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -4888,13 +4888,13 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -4905,13 +4905,13 @@
         <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -4987,16 +4987,16 @@
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -5021,16 +5021,16 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5038,16 +5038,16 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5055,16 +5055,16 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -5072,16 +5072,16 @@
         <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5097,11 +5097,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.79296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5126,13 +5126,13 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -5143,16 +5143,16 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -5160,16 +5160,16 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -5177,16 +5177,16 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -5194,16 +5194,16 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -5211,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -5228,16 +5228,16 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -5245,16 +5245,16 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -5262,16 +5262,16 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -5279,16 +5279,16 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -5296,16 +5296,16 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -5313,16 +5313,16 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -5330,16 +5330,16 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -5347,16 +5347,16 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -5364,16 +5364,16 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -5381,16 +5381,16 @@
         <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -5398,16 +5398,16 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -5415,16 +5415,16 @@
         <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -5432,16 +5432,16 @@
         <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -5449,16 +5449,16 @@
         <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -5466,16 +5466,16 @@
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -5483,16 +5483,16 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -5500,16 +5500,16 @@
         <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -5517,16 +5517,16 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -5534,16 +5534,16 @@
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -5551,16 +5551,16 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -5568,16 +5568,16 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -5585,16 +5585,16 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -5605,13 +5605,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -5619,16 +5619,16 @@
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -5639,13 +5639,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -5653,16 +5653,16 @@
         <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5670,16 +5670,16 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5687,16 +5687,16 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5704,16 +5704,16 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -45,10 +45,154 @@
     <t>Kiss Jenő</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Mon 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Földrajz</t>
+  </si>
+  <si>
+    <t>Tóth Anita</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Mon 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Történelem</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Mon 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Mon 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Nagy Katalin</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
-    <t>Mon 8:00 - 8:45</t>
+    <t>Mon 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>Vizuális kultúra</t>
+  </si>
+  <si>
+    <t>Horváth Edit</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Mon 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Mon 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Testnevelés és sport</t>
+  </si>
+  <si>
+    <t>Molnár Bernadett</t>
+  </si>
+  <si>
+    <t>Kondi</t>
+  </si>
+  <si>
+    <t>Mon 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Tánc és Dráma</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Tue 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Osztályfőnöki</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Tue 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Tue 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Szabó János</t>
+  </si>
+  <si>
+    <t>Fizikalabor</t>
+  </si>
+  <si>
+    <t>Tue 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Focipálya</t>
+  </si>
+  <si>
+    <t>Tue 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Kémia</t>
+  </si>
+  <si>
+    <t>Kémialabor</t>
+  </si>
+  <si>
+    <t>Tue 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Wed 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Wed 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Wed 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Wed 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Wed 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Wed 13:10 - 13:55</t>
   </si>
   <si>
     <t>II. idegen nyelv</t>
@@ -57,312 +201,174 @@
     <t>Németh Emília</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Wed 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Wed 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Angol nyelv</t>
+  </si>
+  <si>
+    <t>Kovács Bence</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Thu 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Varga Csilla</t>
+  </si>
+  <si>
+    <t>Informatika terem1</t>
+  </si>
+  <si>
+    <t>Thu 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Thu 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Thu 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Thu 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Thu 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Thu 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>Thu 15:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Fri 8:00 - 8:45</t>
+  </si>
+  <si>
+    <t>Fri 10:00 - 10:45</t>
+  </si>
+  <si>
+    <t>Ének-zene</t>
+  </si>
+  <si>
+    <t>Fri 11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Fri 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Nagyterem</t>
+  </si>
+  <si>
+    <t>Fri 14:05- 14:50</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Tóth Anna</t>
+  </si>
+  <si>
+    <t>Horváth Edina</t>
+  </si>
+  <si>
+    <t>Tóth Anikó</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Nagy Klára</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Németh Enikő</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
-    <t>Mon 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Angol nyelv</t>
-  </si>
-  <si>
-    <t>Kovács Bence</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Mon 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Varga Csilla</t>
-  </si>
-  <si>
-    <t>Informatika terem1</t>
-  </si>
-  <si>
-    <t>Mon 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Fizika</t>
-  </si>
-  <si>
-    <t>Szabó János</t>
-  </si>
-  <si>
-    <t>Fizikalabor</t>
-  </si>
-  <si>
-    <t>Mon 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Történelem</t>
-  </si>
-  <si>
-    <t>Tóth Anita</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Tue 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Tue 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Tue 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Kémia</t>
-  </si>
-  <si>
-    <t>Kémialabor</t>
+    <t>Szabó Jakab</t>
   </si>
   <si>
     <t>Tue 12:05 - 12:50</t>
   </si>
   <si>
-    <t>Vizuális kultúra</t>
-  </si>
-  <si>
-    <t>Horváth Edit</t>
+    <t>Tue 13:10 - 13:55</t>
+  </si>
+  <si>
+    <t>Kiss János</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Kovács Bálint</t>
+  </si>
+  <si>
+    <t>307</t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>Tue 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Testnevelés és sport</t>
-  </si>
-  <si>
-    <t>Molnár Bernadett</t>
-  </si>
-  <si>
-    <t>Kondi</t>
-  </si>
-  <si>
-    <t>Tue 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Tánc és Dráma</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Tue 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Wed 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Osztályfőnöki</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Wed 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Wed 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Wed 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Földrajz</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Wed 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Nagyterem</t>
-  </si>
-  <si>
-    <t>Wed 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Nagy Katalin</t>
+    <t>Fri 9:00 - 9:45</t>
+  </si>
+  <si>
+    <t>Fri 12:05 - 12:50</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Kiss József</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>Wed 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Wed 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>Thu 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Thu 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Thu 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Thu 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Thu 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Thu 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Thu 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Ének-zene</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Thu 15:00 - 15:45</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Fri 8:00 - 8:45</t>
-  </si>
-  <si>
-    <t>Fri 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Fri 10:00 - 10:45</t>
-  </si>
-  <si>
-    <t>Fri 11:00 - 11:45</t>
-  </si>
-  <si>
-    <t>Fri 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Fri 13:10 - 13:55</t>
-  </si>
-  <si>
-    <t>Fri 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>Nagy Klára</t>
-  </si>
-  <si>
-    <t>Mon 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Tóth Anna</t>
-  </si>
-  <si>
-    <t>Mon 12:05 - 12:50</t>
-  </si>
-  <si>
-    <t>Horváth Edina</t>
+    <t>Molnár Ferenc</t>
+  </si>
+  <si>
+    <t>Farkas Rozália</t>
+  </si>
+  <si>
+    <t>Biológia</t>
+  </si>
+  <si>
+    <t>Bioszlabor</t>
   </si>
   <si>
     <t>308</t>
   </si>
   <si>
-    <t>Németh Enikő</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>Mon 14:05- 14:50</t>
-  </si>
-  <si>
-    <t>Angol</t>
-  </si>
-  <si>
-    <t>Kovács Bálint</t>
-  </si>
-  <si>
-    <t>Szabó Jakab</t>
-  </si>
-  <si>
-    <t>Tóth Anikó</t>
-  </si>
-  <si>
-    <t>Tue 9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>Kiss János</t>
-  </si>
-  <si>
-    <t>Focipálya</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>Farkas Rozália</t>
-  </si>
-  <si>
-    <t>Kiss József</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Molnár Ferenc</t>
-  </si>
-  <si>
-    <t>Biológia</t>
-  </si>
-  <si>
-    <t>Bioszlabor</t>
-  </si>
-  <si>
     <t>10b</t>
   </si>
   <si>
@@ -375,16 +381,10 @@
     <t>Németh Emilia</t>
   </si>
   <si>
-    <t>205</t>
+    <t>Művészetek</t>
   </si>
   <si>
     <t>Etika</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>Művészetek</t>
   </si>
   <si>
     <t>11b</t>
@@ -503,11 +503,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -569,13 +569,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -600,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -617,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -640,10 +640,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -651,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -668,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -685,16 +685,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -702,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -719,16 +719,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -736,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -753,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -787,16 +787,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -804,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -821,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -838,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -855,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -889,16 +889,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -906,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -940,16 +940,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -957,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -974,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -991,16 +991,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1025,16 +1025,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -1042,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -1059,16 +1059,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -1076,16 +1076,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -1093,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -1110,16 +1110,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1135,11 +1135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1161,16 +1161,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1178,271 +1178,271 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1450,308 +1450,308 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
         <v>84</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1767,11 +1767,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1793,16 +1793,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1810,160 +1810,160 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1972,389 +1972,389 @@
         <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -2363,44 +2363,44 @@
         <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2416,11 +2416,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2442,16 +2442,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2459,356 +2459,356 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -2816,240 +2816,240 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
         <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3065,11 +3065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3091,16 +3091,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3108,305 +3108,305 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -3414,84 +3414,84 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -3499,109 +3499,109 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -3610,146 +3610,146 @@
         <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3765,11 +3765,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.05078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3794,13 +3794,13 @@
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3811,16 +3811,16 @@
         <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -3828,16 +3828,16 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -3845,16 +3845,16 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -3862,16 +3862,16 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -3879,16 +3879,16 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -3896,16 +3896,16 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -3913,16 +3913,16 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -3930,16 +3930,16 @@
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -3947,16 +3947,16 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -3964,16 +3964,16 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -3981,16 +3981,16 @@
         <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -3998,16 +3998,16 @@
         <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -4015,16 +4015,16 @@
         <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -4032,16 +4032,16 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -4049,16 +4049,16 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -4066,16 +4066,16 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -4083,16 +4083,16 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -4100,13 +4100,13 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -4117,16 +4117,16 @@
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -4134,16 +4134,16 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -4151,16 +4151,16 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -4171,13 +4171,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -4185,13 +4185,13 @@
         <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -4202,16 +4202,16 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -4219,16 +4219,16 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -4236,16 +4236,16 @@
         <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -4253,16 +4253,16 @@
         <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -4270,16 +4270,16 @@
         <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4287,16 +4287,16 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4304,16 +4304,16 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -4321,16 +4321,16 @@
         <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4338,16 +4338,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -4355,16 +4355,16 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -4372,16 +4372,16 @@
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -4389,16 +4389,16 @@
         <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -4406,16 +4406,16 @@
         <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -4423,16 +4423,16 @@
         <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -4440,16 +4440,16 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4465,11 +4465,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.26953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4494,16 +4494,16 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4511,16 +4511,16 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -4528,16 +4528,16 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -4545,16 +4545,16 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -4562,16 +4562,16 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -4579,16 +4579,16 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -4596,16 +4596,16 @@
         <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -4613,16 +4613,16 @@
         <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -4630,16 +4630,16 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -4647,16 +4647,16 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -4664,16 +4664,16 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -4681,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -4698,16 +4698,16 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -4715,16 +4715,16 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -4732,16 +4732,16 @@
         <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -4749,13 +4749,13 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
@@ -4766,16 +4766,16 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -4783,16 +4783,16 @@
         <v>123</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -4800,16 +4800,16 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -4817,16 +4817,16 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -4837,13 +4837,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -4851,16 +4851,16 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -4868,16 +4868,16 @@
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -4885,16 +4885,16 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +4902,16 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -4919,16 +4919,16 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -4936,16 +4936,16 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4953,16 +4953,16 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -4970,16 +4970,16 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -4990,13 +4990,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -5004,16 +5004,16 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -5021,16 +5021,16 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -5038,16 +5038,16 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -5055,16 +5055,16 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -5072,16 +5072,16 @@
         <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5097,11 +5097,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.9921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5126,13 +5126,13 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -5143,16 +5143,16 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -5160,16 +5160,16 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -5177,16 +5177,16 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -5194,16 +5194,16 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -5211,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -5228,16 +5228,16 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -5245,16 +5245,16 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -5262,16 +5262,16 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -5279,16 +5279,16 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -5296,16 +5296,16 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -5313,16 +5313,16 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -5330,16 +5330,16 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -5347,16 +5347,16 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -5364,16 +5364,16 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -5384,13 +5384,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -5398,16 +5398,16 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -5415,16 +5415,16 @@
         <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -5432,16 +5432,16 @@
         <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -5449,16 +5449,16 @@
         <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -5466,16 +5466,16 @@
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -5483,13 +5483,13 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -5500,16 +5500,16 @@
         <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -5517,16 +5517,16 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -5534,16 +5534,16 @@
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -5551,16 +5551,16 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -5568,16 +5568,16 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -5585,16 +5585,16 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -5605,13 +5605,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -5619,16 +5619,16 @@
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -5636,16 +5636,16 @@
         <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -5653,16 +5653,16 @@
         <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -5670,16 +5670,16 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -5687,16 +5687,16 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -5704,16 +5704,16 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
